--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9307460000000001</v>
+        <v>0.4529906666666667</v>
       </c>
       <c r="H2">
-        <v>2.792238</v>
+        <v>1.358972</v>
       </c>
       <c r="I2">
-        <v>0.2190305734578046</v>
+        <v>0.1117470803109675</v>
       </c>
       <c r="J2">
-        <v>0.2415233147875615</v>
+        <v>0.1238493010025621</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.7139163333333333</v>
+        <v>0.638706</v>
       </c>
       <c r="N2">
-        <v>2.141749</v>
+        <v>1.916118</v>
       </c>
       <c r="O2">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="P2">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="Q2">
-        <v>0.6644747715846666</v>
+        <v>0.289327856744</v>
       </c>
       <c r="R2">
-        <v>5.980272944262</v>
+        <v>2.603950710696</v>
       </c>
       <c r="S2">
-        <v>0.1166490602157035</v>
+        <v>0.06242923215676496</v>
       </c>
       <c r="T2">
-        <v>0.1286280140958407</v>
+        <v>0.06919032464406288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9307460000000001</v>
+        <v>0.4529906666666667</v>
       </c>
       <c r="H3">
-        <v>2.792238</v>
+        <v>1.358972</v>
       </c>
       <c r="I3">
-        <v>0.2190305734578046</v>
+        <v>0.1117470803109675</v>
       </c>
       <c r="J3">
-        <v>0.2415233147875615</v>
+        <v>0.1238493010025621</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.626596</v>
+        <v>0.5045649999999999</v>
       </c>
       <c r="N3">
-        <v>1.879788</v>
+        <v>1.513695</v>
       </c>
       <c r="O3">
-        <v>0.4674302387370799</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="P3">
-        <v>0.4674302387370798</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="Q3">
-        <v>0.5832017206160001</v>
+        <v>0.2285632357266666</v>
       </c>
       <c r="R3">
-        <v>5.248815485544</v>
+        <v>2.05706912154</v>
       </c>
       <c r="S3">
-        <v>0.1023815132421011</v>
+        <v>0.04931784815420258</v>
       </c>
       <c r="T3">
-        <v>0.1128953006917208</v>
+        <v>0.05465897635849919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,43 +667,43 @@
         <v>1.708243</v>
       </c>
       <c r="H4">
-        <v>5.124728999999999</v>
+        <v>5.124729</v>
       </c>
       <c r="I4">
-        <v>0.4019973697391989</v>
+        <v>0.4214019885140712</v>
       </c>
       <c r="J4">
-        <v>0.4432793821543669</v>
+        <v>0.4670398687225041</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7139163333333333</v>
+        <v>0.638706</v>
       </c>
       <c r="N4">
-        <v>2.141749</v>
+        <v>1.916118</v>
       </c>
       <c r="O4">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="P4">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="Q4">
-        <v>1.219542579002333</v>
+        <v>1.091065053558</v>
       </c>
       <c r="R4">
-        <v>10.975883211021</v>
+        <v>9.819585482022001</v>
       </c>
       <c r="S4">
-        <v>0.214091643230327</v>
+        <v>0.2354227287107504</v>
       </c>
       <c r="T4">
-        <v>0.2360771947267259</v>
+        <v>0.2609190352875878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,13 +729,13 @@
         <v>1.708243</v>
       </c>
       <c r="H5">
-        <v>5.124728999999999</v>
+        <v>5.124729</v>
       </c>
       <c r="I5">
-        <v>0.4019973697391989</v>
+        <v>0.4214019885140712</v>
       </c>
       <c r="J5">
-        <v>0.4432793821543669</v>
+        <v>0.4670398687225041</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.626596</v>
+        <v>0.5045649999999999</v>
       </c>
       <c r="N5">
-        <v>1.879788</v>
+        <v>1.513695</v>
       </c>
       <c r="O5">
-        <v>0.4674302387370799</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="P5">
-        <v>0.4674302387370798</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="Q5">
-        <v>1.070378230828</v>
+        <v>0.861919629295</v>
       </c>
       <c r="R5">
-        <v>9.633404077451999</v>
+        <v>7.757276663654999</v>
       </c>
       <c r="S5">
-        <v>0.1879057265088719</v>
+        <v>0.1859792598033208</v>
       </c>
       <c r="T5">
-        <v>0.207202187427641</v>
+        <v>0.2061208334349164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1878516666666667</v>
+        <v>0.1307166666666667</v>
       </c>
       <c r="H6">
-        <v>0.563555</v>
+        <v>0.39215</v>
       </c>
       <c r="I6">
-        <v>0.04420675272846121</v>
+        <v>0.03224615190301634</v>
       </c>
       <c r="J6">
-        <v>0.04874644341388672</v>
+        <v>0.03573841358626573</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.7139163333333333</v>
+        <v>0.638706</v>
       </c>
       <c r="N6">
-        <v>2.141749</v>
+        <v>1.916118</v>
       </c>
       <c r="O6">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="P6">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="Q6">
-        <v>0.1341103730772222</v>
+        <v>0.08348951930000001</v>
       </c>
       <c r="R6">
-        <v>1.206993357695</v>
+        <v>0.7514056737</v>
       </c>
       <c r="S6">
-        <v>0.02354317974680553</v>
+        <v>0.01801481074685525</v>
       </c>
       <c r="T6">
-        <v>0.0259608817313501</v>
+        <v>0.01996581666816481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1878516666666667</v>
+        <v>0.1307166666666667</v>
       </c>
       <c r="H7">
-        <v>0.563555</v>
+        <v>0.39215</v>
       </c>
       <c r="I7">
-        <v>0.04420675272846121</v>
+        <v>0.03224615190301634</v>
       </c>
       <c r="J7">
-        <v>0.04874644341388672</v>
+        <v>0.03573841358626573</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.626596</v>
+        <v>0.5045649999999999</v>
       </c>
       <c r="N7">
-        <v>1.879788</v>
+        <v>1.513695</v>
       </c>
       <c r="O7">
-        <v>0.4674302387370799</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="P7">
-        <v>0.4674302387370798</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="Q7">
-        <v>0.1177071029266667</v>
+        <v>0.06595505491666666</v>
       </c>
       <c r="R7">
-        <v>1.05936392634</v>
+        <v>0.5935954942499999</v>
       </c>
       <c r="S7">
-        <v>0.02066357298165568</v>
+        <v>0.01423134115616108</v>
       </c>
       <c r="T7">
-        <v>0.02278556168253662</v>
+        <v>0.01577259691810093</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.1872195</v>
+        <v>1.188354</v>
       </c>
       <c r="H8">
-        <v>2.374439</v>
+        <v>2.376708</v>
       </c>
       <c r="I8">
-        <v>0.2793859634156773</v>
+        <v>0.2931519336878011</v>
       </c>
       <c r="J8">
-        <v>0.2053844901619643</v>
+        <v>0.2166002128720807</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.7139163333333333</v>
+        <v>0.638706</v>
       </c>
       <c r="N8">
-        <v>2.141749</v>
+        <v>1.916118</v>
       </c>
       <c r="O8">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="P8">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="Q8">
-        <v>0.8475753923018332</v>
+        <v>0.759008829924</v>
       </c>
       <c r="R8">
-        <v>5.085452353810999</v>
+        <v>4.554052979543999</v>
       </c>
       <c r="S8">
-        <v>0.1487925158364982</v>
+        <v>0.1637738549810156</v>
       </c>
       <c r="T8">
-        <v>0.1093815688926639</v>
+        <v>0.1210070539379335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.1872195</v>
+        <v>1.188354</v>
       </c>
       <c r="H9">
-        <v>2.374439</v>
+        <v>2.376708</v>
       </c>
       <c r="I9">
-        <v>0.2793859634156773</v>
+        <v>0.2931519336878011</v>
       </c>
       <c r="J9">
-        <v>0.2053844901619643</v>
+        <v>0.2166002128720807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.626596</v>
+        <v>0.5045649999999999</v>
       </c>
       <c r="N9">
-        <v>1.879788</v>
+        <v>1.513695</v>
       </c>
       <c r="O9">
-        <v>0.4674302387370799</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="P9">
-        <v>0.4674302387370798</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="Q9">
-        <v>0.743906989822</v>
+        <v>0.5996018360099998</v>
       </c>
       <c r="R9">
-        <v>4.463441938931999</v>
+        <v>3.597611016059999</v>
       </c>
       <c r="S9">
-        <v>0.1305934475791791</v>
+        <v>0.1293780787067855</v>
       </c>
       <c r="T9">
-        <v>0.09600292126930038</v>
+        <v>0.09559315893414719</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2353283333333333</v>
+        <v>0.5734093333333333</v>
       </c>
       <c r="H10">
-        <v>0.7059849999999999</v>
+        <v>1.720228</v>
       </c>
       <c r="I10">
-        <v>0.05537934065885793</v>
+        <v>0.1414528455841438</v>
       </c>
       <c r="J10">
-        <v>0.06106636948222056</v>
+        <v>0.1567722038165874</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7139163333333333</v>
+        <v>0.638706</v>
       </c>
       <c r="N10">
-        <v>2.141749</v>
+        <v>1.916118</v>
       </c>
       <c r="O10">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="P10">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="Q10">
-        <v>0.1680047408627777</v>
+        <v>0.366239981656</v>
       </c>
       <c r="R10">
-        <v>1.512042667765</v>
+        <v>3.296159834904</v>
       </c>
       <c r="S10">
-        <v>0.02949336223358589</v>
+        <v>0.07902481668096728</v>
       </c>
       <c r="T10">
-        <v>0.03252210181633947</v>
+        <v>0.08758321273860463</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2353283333333333</v>
+        <v>0.5734093333333333</v>
       </c>
       <c r="H11">
-        <v>0.7059849999999999</v>
+        <v>1.720228</v>
       </c>
       <c r="I11">
-        <v>0.05537934065885793</v>
+        <v>0.1414528455841438</v>
       </c>
       <c r="J11">
-        <v>0.06106636948222056</v>
+        <v>0.1567722038165874</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.626596</v>
+        <v>0.5045649999999999</v>
       </c>
       <c r="N11">
-        <v>1.879788</v>
+        <v>1.513695</v>
       </c>
       <c r="O11">
-        <v>0.4674302387370799</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="P11">
-        <v>0.4674302387370798</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="Q11">
-        <v>0.1474557923533333</v>
+        <v>0.2893222802733333</v>
       </c>
       <c r="R11">
-        <v>1.32710213118</v>
+        <v>2.60390052246</v>
       </c>
       <c r="S11">
-        <v>0.02588597842527204</v>
+        <v>0.0624280289031765</v>
       </c>
       <c r="T11">
-        <v>0.02854426766588108</v>
+        <v>0.06918899107798272</v>
       </c>
     </row>
   </sheetData>
